--- a/statistics.xlsx
+++ b/statistics.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1945" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2334" uniqueCount="105">
   <si>
     <t>name</t>
   </si>
@@ -352,7 +352,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="161">
+  <borders count="193">
     <border>
       <left/>
       <right/>
@@ -520,11 +520,43 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
@@ -686,6 +718,38 @@
     <xf numFmtId="22" fontId="0" fillId="0" borderId="158" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="159" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="160" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="161" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="162" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="163" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="164" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="165" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="166" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="167" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="168" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="169" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="170" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="171" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="172" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="173" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="174" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="175" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="176" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="177" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="178" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="179" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="180" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="181" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="182" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="183" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="184" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="185" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="186" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="187" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="188" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="189" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="190" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="191" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="192" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,36 +797,36 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="161" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="129" t="s">
+      <c r="B1" s="161" t="s">
         <v>16</v>
       </c>
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="161" t="s">
         <v>19</v>
       </c>
-      <c r="D1" s="129" t="s">
+      <c r="D1" s="161" t="s">
         <v>20</v>
       </c>
-      <c r="E1" s="129" t="s">
+      <c r="E1" s="161" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="129" t="s">
+      <c r="F1" s="161" t="s">
         <v>22</v>
       </c>
-      <c r="G1" s="129" t="s">
+      <c r="G1" s="161" t="s">
         <v>23</v>
       </c>
-      <c r="H1" s="129" t="s">
+      <c r="H1" s="161" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="161" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="129" t="s">
+      <c r="B2" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C2">
@@ -777,7 +841,7 @@
       <c r="F2">
         <v>0.5</v>
       </c>
-      <c r="G2" s="129" t="s">
+      <c r="G2" s="161" t="s">
         <v>24</v>
       </c>
       <c r="H2">
@@ -785,10 +849,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="161" t="s">
         <v>18</v>
       </c>
       <c r="C3">
@@ -803,7 +867,7 @@
       <c r="F3">
         <v>0.5</v>
       </c>
-      <c r="G3" s="129" t="s">
+      <c r="G3" s="161" t="s">
         <v>24</v>
       </c>
       <c r="H3">
@@ -811,10 +875,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="129" t="s">
+      <c r="A4" s="161" t="s">
         <v>92</v>
       </c>
-      <c r="B4" s="129" t="s">
+      <c r="B4" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C4">
@@ -829,7 +893,7 @@
       <c r="F4">
         <v>0.5</v>
       </c>
-      <c r="G4" s="129" t="s">
+      <c r="G4" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H4">
@@ -837,10 +901,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="129" t="s">
+      <c r="A5" s="161" t="s">
         <v>93</v>
       </c>
-      <c r="B5" s="129" t="s">
+      <c r="B5" s="161" t="s">
         <v>18</v>
       </c>
       <c r="C5">
@@ -855,7 +919,7 @@
       <c r="F5">
         <v>0.5</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="161" t="s">
         <v>24</v>
       </c>
       <c r="H5">
@@ -863,10 +927,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="129" t="s">
+      <c r="A6" s="161" t="s">
         <v>94</v>
       </c>
-      <c r="B6" s="129" t="s">
+      <c r="B6" s="161" t="s">
         <v>18</v>
       </c>
       <c r="C6">
@@ -881,7 +945,7 @@
       <c r="F6">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G6" s="129" t="s">
+      <c r="G6" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H6">
@@ -889,10 +953,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="129" t="s">
+      <c r="A7" s="161" t="s">
         <v>95</v>
       </c>
-      <c r="B7" s="129" t="s">
+      <c r="B7" s="161" t="s">
         <v>18</v>
       </c>
       <c r="C7">
@@ -907,7 +971,7 @@
       <c r="F7">
         <v>0.5</v>
       </c>
-      <c r="G7" s="129" t="s">
+      <c r="G7" s="161" t="s">
         <v>24</v>
       </c>
       <c r="H7">
@@ -915,10 +979,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="129" t="s">
+      <c r="A8" s="161" t="s">
         <v>96</v>
       </c>
-      <c r="B8" s="129" t="s">
+      <c r="B8" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C8">
@@ -933,7 +997,7 @@
       <c r="F8">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G8" s="129" t="s">
+      <c r="G8" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H8">
@@ -941,10 +1005,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="129" t="s">
+      <c r="A9" s="161" t="s">
         <v>97</v>
       </c>
-      <c r="B9" s="129" t="s">
+      <c r="B9" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C9">
@@ -959,7 +1023,7 @@
       <c r="F9">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G9" s="129" t="s">
+      <c r="G9" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H9">
@@ -967,10 +1031,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="129" t="s">
+      <c r="A10" s="161" t="s">
         <v>98</v>
       </c>
-      <c r="B10" s="129" t="s">
+      <c r="B10" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C10">
@@ -985,7 +1049,7 @@
       <c r="F10">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G10" s="129" t="s">
+      <c r="G10" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H10">
@@ -993,10 +1057,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="129" t="s">
+      <c r="A11" s="161" t="s">
         <v>99</v>
       </c>
-      <c r="B11" s="129" t="s">
+      <c r="B11" s="161" t="s">
         <v>18</v>
       </c>
       <c r="C11">
@@ -1011,7 +1075,7 @@
       <c r="F11">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G11" s="129" t="s">
+      <c r="G11" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H11">
@@ -1019,10 +1083,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="161" t="s">
         <v>100</v>
       </c>
-      <c r="B12" s="129" t="s">
+      <c r="B12" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C12">
@@ -1037,7 +1101,7 @@
       <c r="F12">
         <v>0.5</v>
       </c>
-      <c r="G12" s="129" t="s">
+      <c r="G12" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H12">
@@ -1045,10 +1109,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="129" t="s">
+      <c r="A13" s="161" t="s">
         <v>101</v>
       </c>
-      <c r="B13" s="129" t="s">
+      <c r="B13" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C13">
@@ -1063,7 +1127,7 @@
       <c r="F13">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G13" s="129" t="s">
+      <c r="G13" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H13">
@@ -1071,10 +1135,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="129" t="s">
+      <c r="A14" s="161" t="s">
         <v>102</v>
       </c>
-      <c r="B14" s="129" t="s">
+      <c r="B14" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C14">
@@ -1089,7 +1153,7 @@
       <c r="F14">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G14" s="129" t="s">
+      <c r="G14" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H14">
@@ -1097,10 +1161,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="129" t="s">
+      <c r="A15" s="161" t="s">
         <v>103</v>
       </c>
-      <c r="B15" s="129" t="s">
+      <c r="B15" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C15">
@@ -1115,7 +1179,7 @@
       <c r="F15">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G15" s="129" t="s">
+      <c r="G15" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H15">
@@ -1123,10 +1187,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="129" t="s">
+      <c r="A16" s="161" t="s">
         <v>104</v>
       </c>
-      <c r="B16" s="129" t="s">
+      <c r="B16" s="161" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -1141,7 +1205,7 @@
       <c r="F16">
         <v>0.65000000000000002</v>
       </c>
-      <c r="G16" s="129" t="s">
+      <c r="G16" s="161" t="s">
         <v>25</v>
       </c>
       <c r="H16">
@@ -1175,1066 +1239,1066 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="131" t="s">
+      <c r="A1" s="163" t="s">
         <v>90</v>
       </c>
-      <c r="B1" s="133" t="s">
+      <c r="B1" s="165" t="s">
         <v>91</v>
       </c>
-      <c r="C1" s="135" t="s">
+      <c r="C1" s="167" t="s">
         <v>92</v>
       </c>
-      <c r="D1" s="137" t="s">
+      <c r="D1" s="169" t="s">
         <v>93</v>
       </c>
-      <c r="E1" s="139" t="s">
+      <c r="E1" s="171" t="s">
         <v>94</v>
       </c>
-      <c r="F1" s="141" t="s">
+      <c r="F1" s="173" t="s">
         <v>95</v>
       </c>
-      <c r="G1" s="143" t="s">
+      <c r="G1" s="175" t="s">
         <v>96</v>
       </c>
-      <c r="H1" s="145" t="s">
+      <c r="H1" s="177" t="s">
         <v>97</v>
       </c>
-      <c r="I1" s="147" t="s">
+      <c r="I1" s="179" t="s">
         <v>98</v>
       </c>
-      <c r="J1" s="149" t="s">
+      <c r="J1" s="181" t="s">
         <v>99</v>
       </c>
-      <c r="K1" s="151" t="s">
+      <c r="K1" s="183" t="s">
         <v>100</v>
       </c>
-      <c r="L1" s="153" t="s">
+      <c r="L1" s="185" t="s">
         <v>101</v>
       </c>
-      <c r="M1" s="155" t="s">
+      <c r="M1" s="187" t="s">
         <v>102</v>
       </c>
-      <c r="N1" s="157" t="s">
+      <c r="N1" s="189" t="s">
         <v>103</v>
       </c>
-      <c r="O1" s="159" t="s">
+      <c r="O1" s="191" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="131" t="s">
+      <c r="A2" s="163" t="s">
         <v>53</v>
       </c>
-      <c r="B2" s="133" t="s">
+      <c r="B2" s="165" t="s">
         <v>53</v>
       </c>
-      <c r="C2" s="135" t="s">
+      <c r="C2" s="167" t="s">
         <v>64</v>
       </c>
-      <c r="D2" s="137" t="s">
+      <c r="D2" s="169" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="139" t="s">
+      <c r="E2" s="171" t="s">
         <v>64</v>
       </c>
-      <c r="F2" s="141" t="s">
+      <c r="F2" s="173" t="s">
         <v>53</v>
       </c>
-      <c r="G2" s="143" t="s">
+      <c r="G2" s="175" t="s">
         <v>64</v>
       </c>
-      <c r="H2" s="145" t="s">
+      <c r="H2" s="177" t="s">
         <v>64</v>
       </c>
-      <c r="I2" s="147" t="s">
+      <c r="I2" s="179" t="s">
         <v>64</v>
       </c>
-      <c r="J2" s="149" t="s">
+      <c r="J2" s="181" t="s">
         <v>64</v>
       </c>
-      <c r="K2" s="151" t="s">
+      <c r="K2" s="183" t="s">
         <v>64</v>
       </c>
-      <c r="L2" s="153" t="s">
+      <c r="L2" s="185" t="s">
         <v>64</v>
       </c>
-      <c r="M2" s="155" t="s">
+      <c r="M2" s="187" t="s">
         <v>64</v>
       </c>
-      <c r="N2" s="157" t="s">
+      <c r="N2" s="189" t="s">
         <v>64</v>
       </c>
-      <c r="O2" s="159" t="s">
+      <c r="O2" s="191" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="131" t="s">
-        <v>54</v>
-      </c>
-      <c r="B3" s="133" t="s">
+      <c r="A3" s="163" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C3" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="D3" s="137" t="s">
-        <v>54</v>
-      </c>
-      <c r="E3" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="F3" s="141" t="s">
-        <v>54</v>
-      </c>
-      <c r="G3" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="H3" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="I3" s="147" t="s">
-        <v>54</v>
-      </c>
-      <c r="J3" s="149" t="s">
-        <v>54</v>
-      </c>
-      <c r="K3" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L3" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="M3" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="N3" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="O3" s="159" t="s">
+      <c r="C3" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D3" s="169" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="173" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="I3" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="J3" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="K3" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L3" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="M3" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="N3" s="189" t="s">
+        <v>54</v>
+      </c>
+      <c r="O3" s="191" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" s="133" t="s">
-        <v>54</v>
-      </c>
-      <c r="C4" s="135" t="s">
-        <v>54</v>
-      </c>
-      <c r="D4" s="137" t="s">
+      <c r="A4" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B4" s="165" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="167" t="s">
+        <v>54</v>
+      </c>
+      <c r="D4" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="E4" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="F4" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="H4" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" s="147" t="s">
-        <v>54</v>
-      </c>
-      <c r="J4" s="149" t="s">
-        <v>54</v>
-      </c>
-      <c r="K4" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L4" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="M4" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="N4" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="O4" s="159" t="s">
+      <c r="E4" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="I4" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="J4" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="K4" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L4" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="M4" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="N4" s="189" t="s">
+        <v>54</v>
+      </c>
+      <c r="O4" s="191" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="131" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C5" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D5" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="139" t="s">
+      <c r="A5" s="163" t="s">
+        <v>56</v>
+      </c>
+      <c r="B5" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="F5" s="141" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H5" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I5" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="J5" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="K5" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L5" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="155" t="s">
-        <v>55</v>
-      </c>
-      <c r="N5" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="O5" s="159" t="s">
+      <c r="F5" s="173" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="I5" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="J5" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="K5" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L5" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="M5" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="N5" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O5" s="191" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B6" s="133" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="D6" s="137" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G6" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="H6" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="I6" s="147" t="s">
-        <v>54</v>
-      </c>
-      <c r="J6" s="149" t="s">
-        <v>54</v>
-      </c>
-      <c r="K6" s="151" t="s">
-        <v>55</v>
-      </c>
-      <c r="L6" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="M6" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="N6" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="O6" s="159" t="s">
+      <c r="A6" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B6" s="165" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="169" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="G6" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H6" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="K6" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L6" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="M6" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="189" t="s">
+        <v>54</v>
+      </c>
+      <c r="O6" s="191" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="131" t="s">
-        <v>57</v>
-      </c>
-      <c r="B7" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C7" s="135" t="s">
-        <v>56</v>
-      </c>
-      <c r="D7" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="F7" s="141" t="s">
-        <v>57</v>
-      </c>
-      <c r="G7" s="143" t="s">
-        <v>54</v>
-      </c>
-      <c r="H7" s="145" t="s">
-        <v>54</v>
-      </c>
-      <c r="I7" s="147" t="s">
-        <v>54</v>
-      </c>
-      <c r="J7" s="149" t="s">
-        <v>54</v>
-      </c>
-      <c r="K7" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L7" s="153" t="s">
-        <v>54</v>
-      </c>
-      <c r="M7" s="155" t="s">
-        <v>54</v>
-      </c>
-      <c r="N7" s="157" t="s">
-        <v>54</v>
-      </c>
-      <c r="O7" s="159" t="s">
+      <c r="A7" s="163" t="s">
+        <v>57</v>
+      </c>
+      <c r="B7" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C7" s="167" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F7" s="173" t="s">
+        <v>57</v>
+      </c>
+      <c r="G7" s="175" t="s">
+        <v>54</v>
+      </c>
+      <c r="H7" s="177" t="s">
+        <v>54</v>
+      </c>
+      <c r="I7" s="179" t="s">
+        <v>54</v>
+      </c>
+      <c r="J7" s="181" t="s">
+        <v>54</v>
+      </c>
+      <c r="K7" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L7" s="185" t="s">
+        <v>54</v>
+      </c>
+      <c r="M7" s="187" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="189" t="s">
+        <v>54</v>
+      </c>
+      <c r="O7" s="191" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B8" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="C8" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D8" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G8" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H8" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I8" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="J8" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="K8" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L8" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="M8" s="155" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="O8" s="159" t="s">
+      <c r="A8" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B8" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D8" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="E8" s="171" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="G8" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H8" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="I8" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="J8" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="K8" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L8" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="M8" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O8" s="191" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="B9" s="133" t="s">
+      <c r="A9" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="B9" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C9" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="D9" s="137" t="s">
+      <c r="C9" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="E9" s="139" t="s">
+      <c r="E9" s="171" t="s">
         <v>66</v>
       </c>
-      <c r="F9" s="141" t="s">
-        <v>58</v>
-      </c>
-      <c r="G9" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="H9" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="J9" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="K9" s="151" t="s">
-        <v>54</v>
-      </c>
-      <c r="L9" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="M9" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="N9" s="157" t="s">
-        <v>56</v>
-      </c>
-      <c r="O9" s="159" t="s">
+      <c r="F9" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H9" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" s="179" t="s">
+        <v>56</v>
+      </c>
+      <c r="J9" s="181" t="s">
+        <v>56</v>
+      </c>
+      <c r="K9" s="183" t="s">
+        <v>54</v>
+      </c>
+      <c r="L9" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="M9" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="N9" s="189" t="s">
+        <v>56</v>
+      </c>
+      <c r="O9" s="191" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B10" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="C10" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="D10" s="137" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="F10" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="143" t="s">
-        <v>56</v>
-      </c>
-      <c r="H10" s="145" t="s">
-        <v>56</v>
-      </c>
-      <c r="I10" s="147" t="s">
-        <v>56</v>
-      </c>
-      <c r="J10" s="149" t="s">
-        <v>56</v>
-      </c>
-      <c r="K10" s="151" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="153" t="s">
-        <v>56</v>
-      </c>
-      <c r="M10" s="155" t="s">
-        <v>56</v>
-      </c>
-      <c r="N10" s="157" t="s">
-        <v>56</v>
-      </c>
-      <c r="O10" s="159" t="s">
+      <c r="A10" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B10" s="165" t="s">
+        <v>57</v>
+      </c>
+      <c r="C10" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="D10" s="169" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F10" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="G10" s="175" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" s="177" t="s">
+        <v>56</v>
+      </c>
+      <c r="I10" s="179" t="s">
+        <v>56</v>
+      </c>
+      <c r="J10" s="181" t="s">
+        <v>56</v>
+      </c>
+      <c r="K10" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L10" s="185" t="s">
+        <v>56</v>
+      </c>
+      <c r="M10" s="187" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="189" t="s">
+        <v>56</v>
+      </c>
+      <c r="O10" s="191" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="131" t="s">
-        <v>58</v>
-      </c>
-      <c r="B11" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C11" s="135" t="s">
-        <v>57</v>
-      </c>
-      <c r="D11" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E11" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="F11" s="141" t="s">
-        <v>58</v>
-      </c>
-      <c r="G11" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H11" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I11" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="J11" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="K11" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="L11" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="M11" s="155" t="s">
-        <v>55</v>
-      </c>
-      <c r="N11" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="O11" s="159" t="s">
+      <c r="A11" s="163" t="s">
+        <v>58</v>
+      </c>
+      <c r="B11" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C11" s="167" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E11" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="173" t="s">
+        <v>58</v>
+      </c>
+      <c r="G11" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H11" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="I11" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="J11" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="K11" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="L11" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="M11" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="N11" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O11" s="191" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="131" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C12" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D12" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>56</v>
-      </c>
-      <c r="F12" s="141" t="s">
-        <v>55</v>
-      </c>
-      <c r="G12" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="H12" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="I12" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="J12" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="K12" s="151" t="s">
-        <v>56</v>
-      </c>
-      <c r="L12" s="153" t="s">
-        <v>57</v>
-      </c>
-      <c r="M12" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="O12" s="159" t="s">
+      <c r="A12" s="163" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="E12" s="171" t="s">
+        <v>56</v>
+      </c>
+      <c r="F12" s="173" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="175" t="s">
+        <v>57</v>
+      </c>
+      <c r="H12" s="177" t="s">
+        <v>57</v>
+      </c>
+      <c r="I12" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="J12" s="181" t="s">
+        <v>57</v>
+      </c>
+      <c r="K12" s="183" t="s">
+        <v>56</v>
+      </c>
+      <c r="L12" s="185" t="s">
+        <v>57</v>
+      </c>
+      <c r="M12" s="187" t="s">
+        <v>57</v>
+      </c>
+      <c r="N12" s="189" t="s">
+        <v>57</v>
+      </c>
+      <c r="O12" s="191" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="131" t="s">
+      <c r="A13" s="163" t="s">
         <v>59</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C13" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D13" s="137" t="s">
+      <c r="C13" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D13" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="E13" s="139" t="s">
+      <c r="E13" s="171" t="s">
         <v>67</v>
       </c>
-      <c r="F13" s="141" t="s">
+      <c r="F13" s="173" t="s">
         <v>59</v>
       </c>
-      <c r="G13" s="143" t="s">
-        <v>57</v>
-      </c>
-      <c r="H13" s="145" t="s">
-        <v>57</v>
-      </c>
-      <c r="I13" s="147" t="s">
-        <v>57</v>
-      </c>
-      <c r="J13" s="149" t="s">
-        <v>57</v>
-      </c>
-      <c r="K13" s="151" t="s">
-        <v>55</v>
-      </c>
-      <c r="L13" s="153" t="s">
-        <v>55</v>
-      </c>
-      <c r="M13" s="155" t="s">
-        <v>57</v>
-      </c>
-      <c r="N13" s="157" t="s">
-        <v>57</v>
-      </c>
-      <c r="O13" s="159" t="s">
+      <c r="G13" s="175" t="s">
+        <v>57</v>
+      </c>
+      <c r="H13" s="177" t="s">
+        <v>57</v>
+      </c>
+      <c r="I13" s="179" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="181" t="s">
+        <v>57</v>
+      </c>
+      <c r="K13" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L13" s="185" t="s">
+        <v>55</v>
+      </c>
+      <c r="M13" s="187" t="s">
+        <v>57</v>
+      </c>
+      <c r="N13" s="189" t="s">
+        <v>57</v>
+      </c>
+      <c r="O13" s="191" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="131" t="s">
+      <c r="A14" s="163" t="s">
         <v>60</v>
       </c>
-      <c r="B14" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C14" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D14" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="141" t="s">
+      <c r="B14" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C14" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="173" t="s">
         <v>60</v>
       </c>
-      <c r="G14" s="143" t="s">
-        <v>55</v>
-      </c>
-      <c r="H14" s="145" t="s">
-        <v>55</v>
-      </c>
-      <c r="I14" s="147" t="s">
-        <v>55</v>
-      </c>
-      <c r="J14" s="149" t="s">
-        <v>55</v>
-      </c>
-      <c r="K14" s="151" t="s">
-        <v>57</v>
-      </c>
-      <c r="L14" s="153" t="s">
-        <v>58</v>
-      </c>
-      <c r="M14" s="155" t="s">
-        <v>55</v>
-      </c>
-      <c r="N14" s="157" t="s">
-        <v>55</v>
-      </c>
-      <c r="O14" s="159" t="s">
+      <c r="G14" s="175" t="s">
+        <v>55</v>
+      </c>
+      <c r="H14" s="177" t="s">
+        <v>55</v>
+      </c>
+      <c r="I14" s="179" t="s">
+        <v>55</v>
+      </c>
+      <c r="J14" s="181" t="s">
+        <v>55</v>
+      </c>
+      <c r="K14" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="L14" s="185" t="s">
+        <v>58</v>
+      </c>
+      <c r="M14" s="187" t="s">
+        <v>55</v>
+      </c>
+      <c r="N14" s="189" t="s">
+        <v>55</v>
+      </c>
+      <c r="O14" s="191" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="131" t="s">
+      <c r="A15" s="163" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="F15" s="141" t="s">
+      <c r="B15" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C15" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D15" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="173" t="s">
         <v>35</v>
       </c>
-      <c r="G15" s="143" t="s">
-        <v>58</v>
-      </c>
-      <c r="H15" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="I15" s="147" t="s">
-        <v>58</v>
-      </c>
-      <c r="J15" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="K15" s="151" t="s">
-        <v>57</v>
-      </c>
-      <c r="L15" s="153" t="s">
+      <c r="G15" s="175" t="s">
+        <v>58</v>
+      </c>
+      <c r="H15" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="I15" s="179" t="s">
+        <v>58</v>
+      </c>
+      <c r="J15" s="181" t="s">
+        <v>58</v>
+      </c>
+      <c r="K15" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="L15" s="185" t="s">
         <v>72</v>
       </c>
-      <c r="M15" s="155" t="s">
-        <v>58</v>
-      </c>
-      <c r="N15" s="157" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="159" t="s">
+      <c r="M15" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="N15" s="189" t="s">
+        <v>58</v>
+      </c>
+      <c r="O15" s="191" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="131" t="s">
+      <c r="A16" s="163" t="s">
         <v>61</v>
       </c>
-      <c r="B16" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E16" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="F16" s="141" t="s">
+      <c r="B16" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C16" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D16" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="E16" s="171" t="s">
+        <v>57</v>
+      </c>
+      <c r="F16" s="173" t="s">
         <v>61</v>
       </c>
-      <c r="G16" s="143" t="s">
+      <c r="G16" s="175" t="s">
         <v>72</v>
       </c>
-      <c r="H16" s="145" t="s">
-        <v>58</v>
-      </c>
-      <c r="I16" s="147" t="s">
+      <c r="H16" s="177" t="s">
+        <v>58</v>
+      </c>
+      <c r="I16" s="179" t="s">
         <v>72</v>
       </c>
-      <c r="J16" s="149" t="s">
-        <v>58</v>
-      </c>
-      <c r="K16" s="151" t="s">
-        <v>55</v>
-      </c>
-      <c r="L16" s="153" t="s">
+      <c r="J16" s="181" t="s">
+        <v>58</v>
+      </c>
+      <c r="K16" s="183" t="s">
+        <v>55</v>
+      </c>
+      <c r="L16" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="M16" s="155" t="s">
-        <v>58</v>
-      </c>
-      <c r="N16" s="157" t="s">
+      <c r="M16" s="187" t="s">
+        <v>58</v>
+      </c>
+      <c r="N16" s="189" t="s">
         <v>72</v>
       </c>
-      <c r="O16" s="159" t="s">
+      <c r="O16" s="191" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="133" t="s">
+      <c r="B17" s="165" t="s">
         <v>62</v>
       </c>
-      <c r="C17" s="135" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="137" t="s">
+      <c r="C17" s="167" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="E17" s="139" t="s">
+      <c r="E17" s="171" t="s">
         <v>68</v>
       </c>
-      <c r="G17" s="143" t="s">
+      <c r="G17" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="H17" s="145" t="s">
+      <c r="H17" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="I17" s="147" t="s">
+      <c r="I17" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="J17" s="149" t="s">
+      <c r="J17" s="181" t="s">
         <v>72</v>
       </c>
-      <c r="K17" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="L17" s="153" t="s">
+      <c r="K17" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="L17" s="185" t="s">
         <v>71</v>
       </c>
-      <c r="M17" s="155" t="s">
+      <c r="M17" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="N17" s="157" t="s">
+      <c r="N17" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="O17" s="159" t="s">
+      <c r="O17" s="191" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="133" t="s">
-        <v>58</v>
-      </c>
-      <c r="C18" s="135" t="s">
-        <v>55</v>
-      </c>
-      <c r="D18" s="137" t="s">
-        <v>58</v>
-      </c>
-      <c r="E18" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="G18" s="143" t="s">
+      <c r="B18" s="165" t="s">
+        <v>58</v>
+      </c>
+      <c r="C18" s="167" t="s">
+        <v>55</v>
+      </c>
+      <c r="D18" s="169" t="s">
+        <v>58</v>
+      </c>
+      <c r="E18" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="H18" s="145" t="s">
+      <c r="H18" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="I18" s="147" t="s">
+      <c r="I18" s="179" t="s">
         <v>71</v>
       </c>
-      <c r="J18" s="149" t="s">
+      <c r="J18" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="K18" s="151" t="s">
-        <v>58</v>
-      </c>
-      <c r="L18" s="153" t="s">
+      <c r="K18" s="183" t="s">
+        <v>58</v>
+      </c>
+      <c r="L18" s="185" t="s">
         <v>73</v>
       </c>
-      <c r="M18" s="155" t="s">
+      <c r="M18" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="N18" s="157" t="s">
+      <c r="N18" s="189" t="s">
         <v>71</v>
       </c>
-      <c r="O18" s="159" t="s">
+      <c r="O18" s="191" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="133" t="s">
-        <v>55</v>
-      </c>
-      <c r="C19" s="135" t="s">
+      <c r="B19" s="165" t="s">
+        <v>55</v>
+      </c>
+      <c r="C19" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="D19" s="137" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="143" t="s">
+      <c r="D19" s="169" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" s="171" t="s">
+        <v>58</v>
+      </c>
+      <c r="G19" s="175" t="s">
         <v>73</v>
       </c>
-      <c r="H19" s="145" t="s">
+      <c r="H19" s="177" t="s">
         <v>71</v>
       </c>
-      <c r="I19" s="147" t="s">
+      <c r="I19" s="179" t="s">
         <v>73</v>
       </c>
-      <c r="J19" s="149" t="s">
+      <c r="J19" s="181" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="151" t="s">
+      <c r="K19" s="183" t="s">
         <v>72</v>
       </c>
-      <c r="L19" s="153" t="s">
+      <c r="L19" s="185" t="s">
         <v>60</v>
       </c>
-      <c r="M19" s="155" t="s">
+      <c r="M19" s="187" t="s">
         <v>63</v>
       </c>
-      <c r="N19" s="157" t="s">
+      <c r="N19" s="189" t="s">
         <v>73</v>
       </c>
-      <c r="O19" s="159" t="s">
+      <c r="O19" s="191" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="133" t="s">
+      <c r="B20" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C20" s="135" t="s">
+      <c r="C20" s="167" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="137" t="s">
+      <c r="D20" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="139" t="s">
-        <v>58</v>
-      </c>
-      <c r="G20" s="143" t="s">
+      <c r="E20" s="171" t="s">
+        <v>58</v>
+      </c>
+      <c r="G20" s="175" t="s">
         <v>60</v>
       </c>
-      <c r="H20" s="145" t="s">
+      <c r="H20" s="177" t="s">
         <v>73</v>
       </c>
-      <c r="I20" s="147" t="s">
+      <c r="I20" s="179" t="s">
         <v>60</v>
       </c>
-      <c r="J20" s="149" t="s">
+      <c r="J20" s="181" t="s">
         <v>70</v>
       </c>
-      <c r="K20" s="151" t="s">
+      <c r="K20" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="L20" s="153" t="s">
+      <c r="L20" s="185" t="s">
         <v>35</v>
       </c>
-      <c r="M20" s="155" t="s">
+      <c r="M20" s="187" t="s">
         <v>74</v>
       </c>
-      <c r="N20" s="157" t="s">
+      <c r="N20" s="189" t="s">
         <v>60</v>
       </c>
-      <c r="O20" s="159" t="s">
+      <c r="O20" s="191" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="165" t="s">
         <v>63</v>
       </c>
-      <c r="C21" s="135" t="s">
+      <c r="C21" s="167" t="s">
         <v>35</v>
       </c>
-      <c r="D21" s="137" t="s">
+      <c r="D21" s="169" t="s">
         <v>65</v>
       </c>
-      <c r="E21" s="139" t="s">
+      <c r="E21" s="171" t="s">
         <v>69</v>
       </c>
-      <c r="G21" s="143" t="s">
+      <c r="G21" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="H21" s="145" t="s">
+      <c r="H21" s="177" t="s">
         <v>60</v>
       </c>
-      <c r="I21" s="147" t="s">
+      <c r="I21" s="179" t="s">
         <v>35</v>
       </c>
-      <c r="J21" s="149" t="s">
+      <c r="J21" s="181" t="s">
         <v>60</v>
       </c>
-      <c r="K21" s="151" t="s">
+      <c r="K21" s="183" t="s">
         <v>62</v>
       </c>
-      <c r="L21" s="153" t="s">
+      <c r="L21" s="185" t="s">
         <v>61</v>
       </c>
-      <c r="M21" s="155" t="s">
+      <c r="M21" s="187" t="s">
         <v>60</v>
       </c>
-      <c r="N21" s="157" t="s">
+      <c r="N21" s="189" t="s">
         <v>35</v>
       </c>
-      <c r="O21" s="159" t="s">
+      <c r="O21" s="191" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="133" t="s">
+      <c r="B22" s="165" t="s">
         <v>59</v>
       </c>
-      <c r="C22" s="135" t="s">
+      <c r="C22" s="167" t="s">
         <v>61</v>
       </c>
-      <c r="D22" s="137" t="s">
+      <c r="D22" s="169" t="s">
         <v>59</v>
       </c>
-      <c r="E22" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="G22" s="143" t="s">
+      <c r="E22" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="G22" s="175" t="s">
         <v>61</v>
       </c>
-      <c r="H22" s="145" t="s">
+      <c r="H22" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="I22" s="147" t="s">
+      <c r="I22" s="179" t="s">
         <v>61</v>
       </c>
-      <c r="J22" s="149" t="s">
+      <c r="J22" s="181" t="s">
         <v>35</v>
       </c>
-      <c r="K22" s="151" t="s">
+      <c r="K22" s="183" t="s">
         <v>74</v>
       </c>
-      <c r="M22" s="155" t="s">
+      <c r="M22" s="187" t="s">
         <v>35</v>
       </c>
-      <c r="N22" s="157" t="s">
+      <c r="N22" s="189" t="s">
         <v>61</v>
       </c>
-      <c r="O22" s="159" t="s">
+      <c r="O22" s="191" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="23">
-      <c r="B23" s="133" t="s">
+      <c r="B23" s="165" t="s">
         <v>60</v>
       </c>
-      <c r="D23" s="137" t="s">
+      <c r="D23" s="169" t="s">
         <v>60</v>
       </c>
-      <c r="E23" s="139" t="s">
+      <c r="E23" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="H23" s="145" t="s">
+      <c r="H23" s="177" t="s">
         <v>61</v>
       </c>
-      <c r="J23" s="149" t="s">
+      <c r="J23" s="181" t="s">
         <v>61</v>
       </c>
-      <c r="K23" s="151" t="s">
+      <c r="K23" s="183" t="s">
         <v>60</v>
       </c>
-      <c r="M23" s="155" t="s">
+      <c r="M23" s="187" t="s">
         <v>61</v>
       </c>
-      <c r="O23" s="159" t="s">
+      <c r="O23" s="191" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="24">
-      <c r="B24" s="133" t="s">
+      <c r="B24" s="165" t="s">
         <v>35</v>
       </c>
-      <c r="D24" s="137" t="s">
+      <c r="D24" s="169" t="s">
         <v>35</v>
       </c>
-      <c r="E24" s="139" t="s">
+      <c r="E24" s="171" t="s">
         <v>71</v>
       </c>
-      <c r="K24" s="151" t="s">
+      <c r="K24" s="183" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="25">
-      <c r="B25" s="133" t="s">
+      <c r="B25" s="165" t="s">
         <v>61</v>
       </c>
-      <c r="D25" s="137" t="s">
+      <c r="D25" s="169" t="s">
         <v>61</v>
       </c>
-      <c r="E25" s="139" t="s">
+      <c r="E25" s="171" t="s">
         <v>70</v>
       </c>
-      <c r="K25" s="151" t="s">
+      <c r="K25" s="183" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="26">
-      <c r="E26" s="139" t="s">
+      <c r="E26" s="171" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="27">
-      <c r="E27" s="139" t="s">
+      <c r="E27" s="171" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28">
-      <c r="E28" s="139" t="s">
+      <c r="E28" s="171" t="s">
         <v>61</v>
       </c>
     </row>
